--- a/tests/data/output/一级测试用例-14001_result.xlsx
+++ b/tests/data/output/一级测试用例-14001_result.xlsx
@@ -236,70 +236,70 @@
     <t>true</t>
   </si>
   <si>
-    <t>{"user_name":"王文","id_card_no":"451025196603148127","phone":"15038502845"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"夏芳","id_card_no":"450405195506106997","phone":"14557694053"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"王刚","id_card_no":"420981194410037791","phone":"15681942241"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"朱明","id_card_no":"410100197208302811","phone":"15170044354"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"张成","id_card_no":"430401198207226678","phone":"15965928065"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"曾阳","id_card_no":"220622197407319659","phone":"14529369924"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"陈帆","id_card_no":"610327194108229930","phone":"13832528968"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"冯玉英","id_card_no":"820000196503291568","phone":"13181299812"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"景健","id_card_no":"511823195401143734","phone":"18669837185"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"何凯","id_card_no":"210111195711283833","phone":"14528487304"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"叶彬","id_card_no":"440101193802188218","phone":"18699507384"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"史玉梅","id_card_no":"620622196907132161","phone":"15657115122"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"伍勇","id_card_no":"451381196207237117","phone":"13776205147"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"蒋琳","id_card_no":"411621199609086311","phone":"13541390532"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"王建军","id_card_no":"361124200105028786","phone":"15007665739"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"孙秀云","id_card_no":"440511193002040762","phone":"18044185380"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"林斌","id_card_no":"652822195604053435","phone":"18760011305"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"梁丽丽","id_card_no":"410802196202216644","phone":"18899226134"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"吴桂荣","id_card_no":"320903196210060010","phone":"13655346323"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"伊敏","id_card_no":"370686195705115588","phone":"15776797245"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"刘秀芳","id_card_no":"15040319800813280X","phone":"18871745925"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"马文","id_card_no":"511525193410179955","phone":"18572194919"}</t>
+    <t>{"user_name":"高琴","id_card_no":"533400200008100781","phone":"18806677475"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"余艳","id_card_no":"411082193612077910","phone":"13299737489"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"刘丽娟","id_card_no":"441624198004114295","phone":"15774739482"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"刘杨","id_card_no":"34102319320508498X","phone":"18856266229"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"黄金凤","id_card_no":"150782198406240488","phone":"15794751008"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"刘建平","id_card_no":"150785198212230846","phone":"13118483911"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"刘秀荣","id_card_no":"430000194307127013","phone":"13166045584"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"何玉珍","id_card_no":"370400193404280213","phone":"13159654215"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"郭敏","id_card_no":"410822193612195470","phone":"18875643022"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"王丽","id_card_no":"522633193004071824","phone":"13154189098"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"刘佳","id_card_no":"210114196805041070","phone":"13605507378"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"邓璐","id_card_no":"431202197207312295","phone":"15602082524"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"宋东","id_card_no":"140524195302141346","phone":"15274567154"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"蔡帅","id_card_no":"210900194004123208","phone":"18014748662"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"杨淑华","id_card_no":"210311198304180962","phone":"13925983734"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"郭丽华","id_card_no":"230801199308039280","phone":"13330574629"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"马鹏","id_card_no":"410105195002247346","phone":"15686831171"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"伍凤英","id_card_no":"620400196506088068","phone":"18219014876"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"袁洋","id_card_no":"320282195609143603","phone":"13785959469"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"张亮","id_card_no":"500108198409173435","phone":"14567463790"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"郑冬梅","id_card_no":"220722196103179213","phone":"13940120043"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"李婷婷","id_card_no":"54210019600714557X","phone":"18587680249"}</t>
   </si>
 </sst>
 </file>

--- a/tests/data/output/一级测试用例-14001_result.xlsx
+++ b/tests/data/output/一级测试用例-14001_result.xlsx
@@ -480,7 +480,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"user_name":"傅瑜","id_card_no":"340523193404234828","phone":"18847803737"}</t>
+          <t>{"user_name":"荆秀英","id_card_no":"532625198705255671","phone":"13941753233"}</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"user_name":"傅静","id_card_no":"411101195410133570","phone":"15865918543"}</t>
+          <t>{"user_name":"迟波","id_card_no":"632521193506083408","phone":"18637046483"}</t>
         </is>
       </c>
     </row>
@@ -565,8 +565,9 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>info_social_blacklist.social_id;
-info_social_blacklist.blacklist_name_with_idcard[0]=true</t>
+          <t xml:space="preserve">info_social_blacklist.social_id;
+info_social_blacklist.blacklist_name_with_idcard[0]=true
+</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
@@ -592,7 +593,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>{"user_name":"澹平","id_card_no":"440604193809034541","phone":"13122070893"}</t>
+          <t>{"user_name":"门倩","id_card_no":"210521192912145788","phone":"18630729486"}</t>
         </is>
       </c>
     </row>
@@ -648,7 +649,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>{"user_name":"蔚帆","id_card_no":"130827195409029155","phone":"13736771849"}</t>
+          <t>{"user_name":"路利","id_card_no":"230900194101185949","phone":"14524526390"}</t>
         </is>
       </c>
     </row>
@@ -704,7 +705,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>{"user_name":"贲淑华","id_card_no":"43040519460618445X","phone":"14772889106"}</t>
+          <t>{"user_name":"红云","id_card_no":"510502194211016976","phone":"13909039237"}</t>
         </is>
       </c>
     </row>
@@ -733,7 +734,8 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>info_social_gray.social_id</t>
+          <t xml:space="preserve">info_social_gray.social_id
+</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
@@ -757,7 +759,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>{"user_name":"申莉","id_card_no":"610326194504048553","phone":"15868892521"}</t>
+          <t>{"user_name":"浦秀荣","id_card_no":"530626197904094030","phone":"18005225975"}</t>
         </is>
       </c>
     </row>
@@ -809,7 +811,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>{"user_name":"公刚","id_card_no":"520222196810013945","phone":"13204450476"}</t>
+          <t>{"user_name":"浦玉","id_card_no":"410323197208229891","phone":"18033124229"}</t>
         </is>
       </c>
     </row>
@@ -861,7 +863,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>{"user_name":"闻冬梅","id_card_no":"42058119490928153X","phone":"18675155775"}</t>
+          <t>{"user_name":"葛淑珍","id_card_no":"440704198908031336","phone":"13345554064"}</t>
         </is>
       </c>
     </row>
@@ -918,7 +920,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>{"user_name":"颛伟","id_card_no":"220800194403203092","phone":"13700165686"}</t>
+          <t>{"user_name":"廉秀兰","id_card_no":"150205199901038417","phone":"15051945426"}</t>
         </is>
       </c>
     </row>
@@ -971,7 +973,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>{"user_name":"聂平","id_card_no":"51192219521005085X","phone":"18704806092"}</t>
+          <t>{"user_name":"甄丽华","id_card_no":"320724195511093816","phone":"13933722844"}</t>
         </is>
       </c>
     </row>
@@ -1028,7 +1030,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>{"user_name":"从丽华","id_card_no":"370103195108279586","phone":"15517377926"}</t>
+          <t>{"user_name":"杭建","id_card_no":"330921199212280162","phone":"13422205386"}</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1083,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>{"user_name":"甄玉兰","id_card_no":"513323199412232970","phone":"18292332918"}</t>
+          <t>{"user_name":"党刚","id_card_no":"370406196507139134","phone":"18072603456"}</t>
         </is>
       </c>
     </row>
@@ -1137,7 +1139,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>{"user_name":"程畅","id_card_no":"654322199411069070","phone":"18574454264"}</t>
+          <t>{"user_name":"缪欢","id_card_no":"230623197307120552","phone":"13978231731"}</t>
         </is>
       </c>
     </row>
@@ -1190,7 +1192,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>{"user_name":"亓淑兰","id_card_no":"222400198206017184","phone":"13256446492"}</t>
+          <t>{"user_name":"潘玉梅","id_card_no":"130802198912098234","phone":"18082428281"}</t>
         </is>
       </c>
     </row>
@@ -1246,7 +1248,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>{"user_name":"离俊","id_card_no":"530600195911155687","phone":"15099488641"}</t>
+          <t>{"user_name":"端颖","id_card_no":"220402197204066958","phone":"13938589457"}</t>
         </is>
       </c>
     </row>
@@ -1301,7 +1303,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>{"user_name":"丘秀芳","id_card_no":"632321192911290771","phone":"15160417326"}</t>
+          <t>{"user_name":"班军","id_card_no":"230203197709220559","phone":"13584865877"}</t>
         </is>
       </c>
     </row>
@@ -1359,7 +1361,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>{"user_name":"暨秀荣","id_card_no":"360822197005055613","phone":"18054189265"}</t>
+          <t>{"user_name":"东洁","id_card_no":"533323197008162709","phone":"13024528530"}</t>
         </is>
       </c>
     </row>
@@ -1410,7 +1412,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>{"user_name":"成金凤","id_card_no":"430528195405131508","phone":"13861580319"}</t>
+          <t>{"user_name":"贡玲","id_card_no":"532601194707191107","phone":"18232037478"}</t>
         </is>
       </c>
     </row>
@@ -1469,7 +1471,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>{"user_name":"宰冬梅","id_card_no":"131102199003284109","phone":"14725994758"}</t>
+          <t>{"user_name":"钟雪梅","id_card_no":"130183195604021098","phone":"18181823447"}</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1523,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>{"user_name":"齐玉英","id_card_no":"320706195210143856","phone":"15330345766"}</t>
+          <t>{"user_name":"桓刚","id_card_no":"420703195105271842","phone":"15216364628"}</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1583,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>{"user_name":"广鑫","id_card_no":"513233197605200690","phone":"13233345998"}</t>
+          <t>{"user_name":"寇阳","id_card_no":"371521195108141646","phone":"13289493186"}</t>
         </is>
       </c>
     </row>
@@ -1633,7 +1635,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>{"user_name":"俟雷","id_card_no":"231083193111195575","phone":"15663371048"}</t>
+          <t>{"user_name":"施玉兰","id_card_no":"410103193505032310","phone":"15281036218"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-14001_result.xlsx
+++ b/tests/data/output/一级测试用例-14001_result.xlsx
@@ -480,7 +480,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"user_name":"荆秀英","id_card_no":"532625198705255671","phone":"13941753233"}</t>
+          <t>{"user_name":"禄云","id_card_no":"350623193207093517","phone":"15155920299"}</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"user_name":"迟波","id_card_no":"632521193506083408","phone":"18637046483"}</t>
+          <t>{"user_name":"屠利","id_card_no":"36110019940506837X","phone":"13857441524"}</t>
         </is>
       </c>
     </row>
@@ -593,7 +593,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>{"user_name":"门倩","id_card_no":"210521192912145788","phone":"18630729486"}</t>
+          <t>{"user_name":"仉桂芝","id_card_no":"222405199607179068","phone":"18042356391"}</t>
         </is>
       </c>
     </row>
@@ -649,7 +649,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>{"user_name":"路利","id_card_no":"230900194101185949","phone":"14524526390"}</t>
+          <t>{"user_name":"浦秀珍","id_card_no":"130682198011129129","phone":"18924485317"}</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>{"user_name":"红云","id_card_no":"510502194211016976","phone":"13909039237"}</t>
+          <t>{"user_name":"钟凯","id_card_no":"411481194002130163","phone":"18292978045"}</t>
         </is>
       </c>
     </row>
@@ -759,7 +759,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>{"user_name":"浦秀荣","id_card_no":"530626197904094030","phone":"18005225975"}</t>
+          <t>{"user_name":"劳淑华","id_card_no":"513432199604073160","phone":"15880242152"}</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>{"user_name":"浦玉","id_card_no":"410323197208229891","phone":"18033124229"}</t>
+          <t>{"user_name":"祁帅","id_card_no":"110106199504085395","phone":"13333658973"}</t>
         </is>
       </c>
     </row>
@@ -863,7 +863,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>{"user_name":"葛淑珍","id_card_no":"440704198908031336","phone":"13345554064"}</t>
+          <t>{"user_name":"阳晶","id_card_no":"510131193512061362","phone":"18595476872"}</t>
         </is>
       </c>
     </row>
@@ -920,7 +920,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>{"user_name":"廉秀兰","id_card_no":"150205199901038417","phone":"15051945426"}</t>
+          <t>{"user_name":"姬飞","id_card_no":"450108196308062281","phone":"18603569899"}</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>{"user_name":"甄丽华","id_card_no":"320724195511093816","phone":"13933722844"}</t>
+          <t>{"user_name":"戴红","id_card_no":"532628195901201393","phone":"14720883446"}</t>
         </is>
       </c>
     </row>
@@ -1030,7 +1030,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>{"user_name":"杭建","id_card_no":"330921199212280162","phone":"13422205386"}</t>
+          <t>{"user_name":"莘峰","id_card_no":"41162719640304986X","phone":"15981243399"}</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>{"user_name":"党刚","id_card_no":"370406196507139134","phone":"18072603456"}</t>
+          <t>{"user_name":"束莉","id_card_no":"141001193603283241","phone":"13163455503"}</t>
         </is>
       </c>
     </row>
@@ -1139,7 +1139,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>{"user_name":"缪欢","id_card_no":"230623197307120552","phone":"13978231731"}</t>
+          <t>{"user_name":"松倩","id_card_no":"130204197810088743","phone":"15225832955"}</t>
         </is>
       </c>
     </row>
@@ -1192,7 +1192,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>{"user_name":"潘玉梅","id_card_no":"130802198912098234","phone":"18082428281"}</t>
+          <t>{"user_name":"车飞","id_card_no":"130535193709114970","phone":"18917942153"}</t>
         </is>
       </c>
     </row>
@@ -1248,7 +1248,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>{"user_name":"端颖","id_card_no":"220402197204066958","phone":"13938589457"}</t>
+          <t>{"user_name":"莘慧","id_card_no":"450323197602273863","phone":"18275263699"}</t>
         </is>
       </c>
     </row>
@@ -1303,7 +1303,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>{"user_name":"班军","id_card_no":"230203197709220559","phone":"13584865877"}</t>
+          <t>{"user_name":"融莉","id_card_no":"130535193504077790","phone":"15875891253"}</t>
         </is>
       </c>
     </row>
@@ -1361,7 +1361,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>{"user_name":"东洁","id_card_no":"533323197008162709","phone":"13024528530"}</t>
+          <t>{"user_name":"汲阳","id_card_no":"623023199110300543","phone":"14528956265"}</t>
         </is>
       </c>
     </row>
@@ -1412,7 +1412,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>{"user_name":"贡玲","id_card_no":"532601194707191107","phone":"18232037478"}</t>
+          <t>{"user_name":"从雪梅","id_card_no":"341201195007109615","phone":"13229098095"}</t>
         </is>
       </c>
     </row>
@@ -1471,7 +1471,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>{"user_name":"钟雪梅","id_card_no":"130183195604021098","phone":"18181823447"}</t>
+          <t>{"user_name":"驷荣","id_card_no":"210381197611121844","phone":"18619612982"}</t>
         </is>
       </c>
     </row>
@@ -1523,7 +1523,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>{"user_name":"桓刚","id_card_no":"420703195105271842","phone":"15216364628"}</t>
+          <t>{"user_name":"颛璐","id_card_no":"150522199902054198","phone":"13686815729"}</t>
         </is>
       </c>
     </row>
@@ -1583,7 +1583,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>{"user_name":"寇阳","id_card_no":"371521195108141646","phone":"13289493186"}</t>
+          <t>{"user_name":"魏淑华","id_card_no":"469003197801311795","phone":"13002831876"}</t>
         </is>
       </c>
     </row>
@@ -1635,7 +1635,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>{"user_name":"施玉兰","id_card_no":"410103193505032310","phone":"15281036218"}</t>
+          <t>{"user_name":"冷畅","id_card_no":"310200200009092715","phone":"13470387533"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-14001_result.xlsx
+++ b/tests/data/output/一级测试用例-14001_result.xlsx
@@ -480,7 +480,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"user_name":"禄云","id_card_no":"350623193207093517","phone":"15155920299"}</t>
+          <t>{"user_name":"干瑞","id_card_no":"320000197904295187","phone":"18260087120"}</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"user_name":"屠利","id_card_no":"36110019940506837X","phone":"13857441524"}</t>
+          <t>{"user_name":"訾梅","id_card_no":"140301196208170342","phone":"15640171016"}</t>
         </is>
       </c>
     </row>
@@ -593,7 +593,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>{"user_name":"仉桂芝","id_card_no":"222405199607179068","phone":"18042356391"}</t>
+          <t>{"user_name":"黎强","id_card_no":"451481196606244133","phone":"15673388214"}</t>
         </is>
       </c>
     </row>
@@ -649,7 +649,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>{"user_name":"浦秀珍","id_card_no":"130682198011129129","phone":"18924485317"}</t>
+          <t>{"user_name":"笪东","id_card_no":"511100193603094107","phone":"15180198002"}</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>{"user_name":"钟凯","id_card_no":"411481194002130163","phone":"18292978045"}</t>
+          <t>{"user_name":"马秀兰","id_card_no":"44178119671030097X","phone":"15933004938"}</t>
         </is>
       </c>
     </row>
@@ -759,7 +759,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>{"user_name":"劳淑华","id_card_no":"513432199604073160","phone":"15880242152"}</t>
+          <t>{"user_name":"屠桂珍","id_card_no":"340208196410091812","phone":"15884584508"}</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>{"user_name":"祁帅","id_card_no":"110106199504085395","phone":"13333658973"}</t>
+          <t>{"user_name":"蔺霞","id_card_no":"350181198802217640","phone":"15310265285"}</t>
         </is>
       </c>
     </row>
@@ -863,7 +863,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>{"user_name":"阳晶","id_card_no":"510131193512061362","phone":"18595476872"}</t>
+          <t>{"user_name":"訾楠","id_card_no":"620522198001055036","phone":"13310040479"}</t>
         </is>
       </c>
     </row>
@@ -920,7 +920,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>{"user_name":"姬飞","id_card_no":"450108196308062281","phone":"18603569899"}</t>
+          <t>{"user_name":"文丹丹","id_card_no":"34130119980305767X","phone":"13057586590"}</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>{"user_name":"戴红","id_card_no":"532628195901201393","phone":"14720883446"}</t>
+          <t>{"user_name":"国秀云","id_card_no":"511028193003240685","phone":"18962538577"}</t>
         </is>
       </c>
     </row>
@@ -1030,7 +1030,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>{"user_name":"莘峰","id_card_no":"41162719640304986X","phone":"15981243399"}</t>
+          <t>{"user_name":"陶伟","id_card_no":"340721197104208106","phone":"18149700173"}</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>{"user_name":"束莉","id_card_no":"141001193603283241","phone":"13163455503"}</t>
+          <t>{"user_name":"于宁","id_card_no":"152221199005163211","phone":"18607251518"}</t>
         </is>
       </c>
     </row>
@@ -1139,7 +1139,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>{"user_name":"松倩","id_card_no":"130204197810088743","phone":"15225832955"}</t>
+          <t>{"user_name":"翟艳","id_card_no":"140724194007294776","phone":"14584273356"}</t>
         </is>
       </c>
     </row>
@@ -1192,7 +1192,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>{"user_name":"车飞","id_card_no":"130535193709114970","phone":"18917942153"}</t>
+          <t>{"user_name":"江兰英","id_card_no":"430724195902280497","phone":"13653920841"}</t>
         </is>
       </c>
     </row>
@@ -1248,7 +1248,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>{"user_name":"莘慧","id_card_no":"450323197602273863","phone":"18275263699"}</t>
+          <t>{"user_name":"桂想","id_card_no":"320481199203223921","phone":"18713711158"}</t>
         </is>
       </c>
     </row>
@@ -1303,7 +1303,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>{"user_name":"融莉","id_card_no":"130535193504077790","phone":"15875891253"}</t>
+          <t>{"user_name":"缑金凤","id_card_no":"500118196212065389","phone":"18157775507"}</t>
         </is>
       </c>
     </row>
@@ -1361,7 +1361,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>{"user_name":"汲阳","id_card_no":"623023199110300543","phone":"14528956265"}</t>
+          <t>{"user_name":"经桂珍","id_card_no":"410402198910037281","phone":"15841367919"}</t>
         </is>
       </c>
     </row>
@@ -1412,7 +1412,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>{"user_name":"从雪梅","id_card_no":"341201195007109615","phone":"13229098095"}</t>
+          <t>{"user_name":"有欣","id_card_no":"530927195611166639","phone":"18542620553"}</t>
         </is>
       </c>
     </row>
@@ -1471,7 +1471,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>{"user_name":"驷荣","id_card_no":"210381197611121844","phone":"18619612982"}</t>
+          <t>{"user_name":"尉秀云","id_card_no":"150923195710058549","phone":"18165645255"}</t>
         </is>
       </c>
     </row>
@@ -1523,7 +1523,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>{"user_name":"颛璐","id_card_no":"150522199902054198","phone":"13686815729"}</t>
+          <t>{"user_name":"郗俊","id_card_no":"410922193604122939","phone":"18231598416"}</t>
         </is>
       </c>
     </row>
@@ -1583,7 +1583,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>{"user_name":"魏淑华","id_card_no":"469003197801311795","phone":"13002831876"}</t>
+          <t>{"user_name":"燕玲","id_card_no":"370828197912145313","phone":"14743068765"}</t>
         </is>
       </c>
     </row>
@@ -1635,7 +1635,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>{"user_name":"冷畅","id_card_no":"310200200009092715","phone":"13470387533"}</t>
+          <t>{"user_name":"巫玉华","id_card_no":"45060119630826672X","phone":"13648753229"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-14001_result.xlsx
+++ b/tests/data/output/一级测试用例-14001_result.xlsx
@@ -480,7 +480,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"user_name":"干瑞","id_card_no":"320000197904295187","phone":"18260087120"}</t>
+          <t>{"user_name":"管霞","id_card_no":"420100198606185725","phone":"13618377855"}</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"user_name":"訾梅","id_card_no":"140301196208170342","phone":"15640171016"}</t>
+          <t>{"user_name":"家燕","id_card_no":"220600193010065391","phone":"13428128560"}</t>
         </is>
       </c>
     </row>
@@ -593,7 +593,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>{"user_name":"黎强","id_card_no":"451481196606244133","phone":"15673388214"}</t>
+          <t>{"user_name":"逄芳","id_card_no":"530321196405068484","phone":"15086478634"}</t>
         </is>
       </c>
     </row>
@@ -649,7 +649,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>{"user_name":"笪东","id_card_no":"511100193603094107","phone":"15180198002"}</t>
+          <t>{"user_name":"宦莹","id_card_no":"231083197308211346","phone":"15287017338"}</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>{"user_name":"马秀兰","id_card_no":"44178119671030097X","phone":"15933004938"}</t>
+          <t>{"user_name":"车军","id_card_no":"422823198604022345","phone":"18507305864"}</t>
         </is>
       </c>
     </row>
@@ -759,7 +759,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>{"user_name":"屠桂珍","id_card_no":"340208196410091812","phone":"15884584508"}</t>
+          <t>{"user_name":"夹柳","id_card_no":"511322194605194201","phone":"13527474204"}</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>{"user_name":"蔺霞","id_card_no":"350181198802217640","phone":"15310265285"}</t>
+          <t>{"user_name":"晋晶","id_card_no":"410927194405131265","phone":"15312919331"}</t>
         </is>
       </c>
     </row>
@@ -863,7 +863,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>{"user_name":"訾楠","id_card_no":"620522198001055036","phone":"13310040479"}</t>
+          <t>{"user_name":"伊玉兰","id_card_no":"640501197907159357","phone":"15758455996"}</t>
         </is>
       </c>
     </row>
@@ -920,7 +920,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>{"user_name":"文丹丹","id_card_no":"34130119980305767X","phone":"13057586590"}</t>
+          <t>{"user_name":"屠小红","id_card_no":"500113199611110505","phone":"13382321075"}</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>{"user_name":"国秀云","id_card_no":"511028193003240685","phone":"18962538577"}</t>
+          <t>{"user_name":"牟丽华","id_card_no":"511524200003068306","phone":"15520049461"}</t>
         </is>
       </c>
     </row>
@@ -1030,7 +1030,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>{"user_name":"陶伟","id_card_no":"340721197104208106","phone":"18149700173"}</t>
+          <t>{"user_name":"田丽丽","id_card_no":"421300196106117868","phone":"13269443221"}</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>{"user_name":"于宁","id_card_no":"152221199005163211","phone":"18607251518"}</t>
+          <t>{"user_name":"魏娟","id_card_no":"53052419701225351X","phone":"18561575324"}</t>
         </is>
       </c>
     </row>
@@ -1139,7 +1139,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>{"user_name":"翟艳","id_card_no":"140724194007294776","phone":"14584273356"}</t>
+          <t>{"user_name":"帅玉","id_card_no":"320700199201219353","phone":"18275039013"}</t>
         </is>
       </c>
     </row>
@@ -1192,7 +1192,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>{"user_name":"江兰英","id_card_no":"430724195902280497","phone":"13653920841"}</t>
+          <t>{"user_name":"闻桂英","id_card_no":"62300019360630209X","phone":"18508455371"}</t>
         </is>
       </c>
     </row>
@@ -1248,7 +1248,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>{"user_name":"桂想","id_card_no":"320481199203223921","phone":"18713711158"}</t>
+          <t>{"user_name":"于凯","id_card_no":"420525195902175367","phone":"15628757695"}</t>
         </is>
       </c>
     </row>
@@ -1303,7 +1303,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>{"user_name":"缑金凤","id_card_no":"500118196212065389","phone":"18157775507"}</t>
+          <t>{"user_name":"左琴","id_card_no":"22018319490129820X","phone":"18171335575"}</t>
         </is>
       </c>
     </row>
@@ -1361,7 +1361,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>{"user_name":"经桂珍","id_card_no":"410402198910037281","phone":"15841367919"}</t>
+          <t>{"user_name":"尚桂香","id_card_no":"320922193712165811","phone":"15314297621"}</t>
         </is>
       </c>
     </row>
@@ -1412,7 +1412,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>{"user_name":"有欣","id_card_no":"530927195611166639","phone":"18542620553"}</t>
+          <t>{"user_name":"郭健","id_card_no":"230184199508070672","phone":"13900939608"}</t>
         </is>
       </c>
     </row>
@@ -1471,7 +1471,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>{"user_name":"尉秀云","id_card_no":"150923195710058549","phone":"18165645255"}</t>
+          <t>{"user_name":"费秀英","id_card_no":"430105194806292408","phone":"15334029573"}</t>
         </is>
       </c>
     </row>
@@ -1523,7 +1523,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>{"user_name":"郗俊","id_card_no":"410922193604122939","phone":"18231598416"}</t>
+          <t>{"user_name":"祝畅","id_card_no":"620981197910237483","phone":"18717759819"}</t>
         </is>
       </c>
     </row>
@@ -1583,7 +1583,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>{"user_name":"燕玲","id_card_no":"370828197912145313","phone":"14743068765"}</t>
+          <t>{"user_name":"蒋淑华","id_card_no":"533102194007075340","phone":"15714061798"}</t>
         </is>
       </c>
     </row>
@@ -1635,7 +1635,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>{"user_name":"巫玉华","id_card_no":"45060119630826672X","phone":"13648753229"}</t>
+          <t>{"user_name":"束丽丽","id_card_no":"340222199010311792","phone":"18076626204"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-14001_result.xlsx
+++ b/tests/data/output/一级测试用例-14001_result.xlsx
@@ -480,7 +480,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"user_name":"管霞","id_card_no":"420100198606185725","phone":"13618377855"}</t>
+          <t>{"user_name":"壤雪梅","id_card_no":"610821193510260025","phone":"15601098699"}</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"user_name":"家燕","id_card_no":"220600193010065391","phone":"13428128560"}</t>
+          <t>{"user_name":"笪倩","id_card_no":"469003193904254916","phone":"14584211153"}</t>
         </is>
       </c>
     </row>
@@ -593,7 +593,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>{"user_name":"逄芳","id_card_no":"530321196405068484","phone":"15086478634"}</t>
+          <t>{"user_name":"于桂香","id_card_no":"420800200008196326","phone":"14512064761"}</t>
         </is>
       </c>
     </row>
@@ -649,7 +649,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>{"user_name":"宦莹","id_card_no":"231083197308211346","phone":"15287017338"}</t>
+          <t>{"user_name":"濮云","id_card_no":"220102200106201667","phone":"18562593047"}</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>{"user_name":"车军","id_card_no":"422823198604022345","phone":"18507305864"}</t>
+          <t>{"user_name":"佟慧","id_card_no":"421122199710014823","phone":"15147275544"}</t>
         </is>
       </c>
     </row>
@@ -759,7 +759,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>{"user_name":"夹柳","id_card_no":"511322194605194201","phone":"13527474204"}</t>
+          <t>{"user_name":"万丽娟","id_card_no":"360200196005162157","phone":"15943339836"}</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>{"user_name":"晋晶","id_card_no":"410927194405131265","phone":"15312919331"}</t>
+          <t>{"user_name":"苏浩","id_card_no":"350102197507199793","phone":"15897427528"}</t>
         </is>
       </c>
     </row>
@@ -863,7 +863,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>{"user_name":"伊玉兰","id_card_no":"640501197907159357","phone":"15758455996"}</t>
+          <t>{"user_name":"陶宇","id_card_no":"37132419320228364X","phone":"18601766221"}</t>
         </is>
       </c>
     </row>
@@ -920,7 +920,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>{"user_name":"屠小红","id_card_no":"500113199611110505","phone":"13382321075"}</t>
+          <t>{"user_name":"寿志强","id_card_no":"44011319350429582X","phone":"18585488158"}</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>{"user_name":"牟丽华","id_card_no":"511524200003068306","phone":"15520049461"}</t>
+          <t>{"user_name":"韩淑英","id_card_no":"510422199508044380","phone":"18883898751"}</t>
         </is>
       </c>
     </row>
@@ -1030,7 +1030,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>{"user_name":"田丽丽","id_card_no":"421300196106117868","phone":"13269443221"}</t>
+          <t>{"user_name":"车云","id_card_no":"511921198007273457","phone":"15644959154"}</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>{"user_name":"魏娟","id_card_no":"53052419701225351X","phone":"18561575324"}</t>
+          <t>{"user_name":"元宇","id_card_no":"15030219300728417X","phone":"13004258987"}</t>
         </is>
       </c>
     </row>
@@ -1139,7 +1139,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>{"user_name":"帅玉","id_card_no":"320700199201219353","phone":"18275039013"}</t>
+          <t>{"user_name":"禹晶","id_card_no":"511102197507070392","phone":"13290772107"}</t>
         </is>
       </c>
     </row>
@@ -1192,7 +1192,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>{"user_name":"闻桂英","id_card_no":"62300019360630209X","phone":"18508455371"}</t>
+          <t>{"user_name":"都宁","id_card_no":"321323193808057895","phone":"13496896694"}</t>
         </is>
       </c>
     </row>
@@ -1248,7 +1248,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>{"user_name":"于凯","id_card_no":"420525195902175367","phone":"15628757695"}</t>
+          <t>{"user_name":"宦春梅","id_card_no":"360901193609278629","phone":"15812053103"}</t>
         </is>
       </c>
     </row>
@@ -1303,7 +1303,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>{"user_name":"左琴","id_card_no":"22018319490129820X","phone":"18171335575"}</t>
+          <t>{"user_name":"凌杰","id_card_no":"500243196509231327","phone":"15689583223"}</t>
         </is>
       </c>
     </row>
@@ -1361,7 +1361,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>{"user_name":"尚桂香","id_card_no":"320922193712165811","phone":"15314297621"}</t>
+          <t>{"user_name":"凤琳","id_card_no":"652827193710101106","phone":"15018412236"}</t>
         </is>
       </c>
     </row>
@@ -1412,7 +1412,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>{"user_name":"郭健","id_card_no":"230184199508070672","phone":"13900939608"}</t>
+          <t>{"user_name":"冀淑英","id_card_no":"131101195001072140","phone":"18014252555"}</t>
         </is>
       </c>
     </row>
@@ -1471,7 +1471,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>{"user_name":"费秀英","id_card_no":"430105194806292408","phone":"15334029573"}</t>
+          <t>{"user_name":"范成","id_card_no":"50010619570625733X","phone":"13343093220"}</t>
         </is>
       </c>
     </row>
@@ -1523,7 +1523,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>{"user_name":"祝畅","id_card_no":"620981197910237483","phone":"18717759819"}</t>
+          <t>{"user_name":"东宁","id_card_no":"433122198202114296","phone":"13447603331"}</t>
         </is>
       </c>
     </row>
@@ -1583,7 +1583,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>{"user_name":"蒋淑华","id_card_no":"533102194007075340","phone":"15714061798"}</t>
+          <t>{"user_name":"年建平","id_card_no":"230208194301179159","phone":"18645275771"}</t>
         </is>
       </c>
     </row>
@@ -1635,7 +1635,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>{"user_name":"束丽丽","id_card_no":"340222199010311792","phone":"18076626204"}</t>
+          <t>{"user_name":"钭瑜","id_card_no":"331021196101068167","phone":"18217515849"}</t>
         </is>
       </c>
     </row>
